--- a/MedicalLink/Templates/BC_BNSuDungThuocTheoNhom_Khoa.xlsx
+++ b/MedicalLink/Templates/BC_BNSuDungThuocTheoNhom_Khoa.xlsx
@@ -132,10 +132,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -340,9 +339,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -355,54 +351,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -419,6 +367,57 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -710,73 +709,73 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="93" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A10" sqref="A10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="4" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="31.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
     <col min="5" max="5" width="15.140625" style="6" customWidth="1"/>
     <col min="6" max="6" width="15.140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="13" customWidth="1"/>
     <col min="8" max="8" width="15.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="13" customWidth="1"/>
     <col min="10" max="10" width="15.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="14" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="13" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="29" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="33"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
-      <c r="B3" s="15"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="13"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="34"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="17"/>
       <c r="K4" s="1"/>
     </row>
     <row r="7" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -789,49 +788,49 @@
       <c r="C7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="17" t="s">
+      <c r="E7" s="28"/>
+      <c r="F7" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="18" t="s">
+      <c r="G7" s="28"/>
+      <c r="H7" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="17" t="s">
+      <c r="I7" s="28"/>
+      <c r="J7" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="19"/>
+      <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="15" t="s">
         <v>22</v>
       </c>
     </row>
@@ -839,98 +838,98 @@
       <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="36" t="s">
+      <c r="H9" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="36" t="s">
+      <c r="J9" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="37" t="s">
+      <c r="K9" s="20" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="11">
+      <c r="B10" s="30"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="38">
         <f>SUM(D9:D9)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="38">
         <f t="shared" ref="E10:K10" si="0">SUM(E9:E9)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
     </row>
     <row r="13" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D4:I4"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D4:I4"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="F7:G7"/>

--- a/MedicalLink/Templates/BC_BNSuDungThuocTheoNhom_Khoa.xlsx
+++ b/MedicalLink/Templates/BC_BNSuDungThuocTheoNhom_Khoa.xlsx
@@ -32,9 +32,6 @@
     <t>STT</t>
   </si>
   <si>
-    <t>BỆNH VIỆN HỮU NGHỊ VIỆT TIỆP</t>
-  </si>
-  <si>
     <t>&amp;=[DATA].THOIGIANBAOCAO</t>
   </si>
   <si>
@@ -44,9 +41,6 @@
     <t>&amp;=[DATA1].STT</t>
   </si>
   <si>
-    <t>SỞ Y TẾ HẢI PHÒNG</t>
-  </si>
-  <si>
     <t>BÁO CÁO SỬ DỤNG THUỐC</t>
   </si>
   <si>
@@ -126,6 +120,12 @@
   </si>
   <si>
     <t>&amp;=[DATA1].MONEY_TONG_TV</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].TENBENHVIEN</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].SOYTE</t>
   </si>
 </sst>
 </file>
@@ -368,6 +368,24 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -398,26 +416,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -709,7 +709,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="93" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:C10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,201 +729,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+      <c r="A1" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
       <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
+      <c r="A2" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
       <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="14"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="D3" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
       <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
+      <c r="D4" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
       <c r="J4" s="17"/>
       <c r="K4" s="1"/>
     </row>
     <row r="7" spans="1:11" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="25" t="s">
+      <c r="B7" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="34"/>
+      <c r="F7" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="34"/>
+      <c r="H7" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="34"/>
+      <c r="J7" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="28"/>
+      <c r="K7" s="34"/>
     </row>
     <row r="8" spans="1:11" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="G8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="H8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="I8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="J8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="K8" s="15" t="s">
         <v>20</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="E9" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="F9" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="G9" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="H9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="I9" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="J9" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="K9" s="20" t="s">
         <v>30</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="38">
+      <c r="A10" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="22">
         <f>SUM(D9:D9)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="22">
         <f t="shared" ref="E10:K10" si="0">SUM(E9:E9)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="38">
+      <c r="G10" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="38">
+      <c r="I10" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K10" s="38">
+      <c r="K10" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H12" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
+      <c r="H12" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
     </row>
     <row r="13" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D4:I4"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="C7:C8"/>
@@ -933,6 +928,11 @@
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D4:I4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
